--- a/Stocks/IOC.xlsx
+++ b/Stocks/IOC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>443.33333333333331</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>370.01694690471231</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>368.81384601121238</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>38.55621652339412</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>2.8499999999999659</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>7.1499999999999773</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.3986013986013951</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>380.50916959850736</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-7.7431699193534769</v>
       </c>
       <c r="Y67">
         <v>-8.2931120276660035</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>429.5</v>
+      </c>
+      <c r="D83">
+        <v>442.5</v>
+      </c>
+      <c r="E83">
+        <v>428.4</v>
+      </c>
+      <c r="F83">
+        <v>441.05</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>437.31666666666666</v>
+      </c>
+      <c r="H83">
+        <v>432.19486898214063</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>432.70729566691392</v>
+      </c>
+      <c r="K83">
+        <v>420.05583615242585</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>79.223466851438573</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>12.650000000000034</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>14.100000000000023</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.8971631205673769</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>421.22258612203831</v>
+      </c>
+      <c r="W83">
+        <v>409.9803439758968</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>11.242242146141507</v>
+      </c>
+      <c r="Y83">
+        <v>8.8825797255533914</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>441</v>
+      </c>
+      <c r="D84">
+        <v>446.5</v>
+      </c>
+      <c r="E84">
+        <v>432</v>
+      </c>
+      <c r="F84">
+        <v>437</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>438.5</v>
+      </c>
+      <c r="H84">
+        <v>435.34743449107032</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>435.77234107426636</v>
+      </c>
+      <c r="K84">
+        <v>422.71009478522012</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>69.201008612656963</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>14.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>423.64988056480166</v>
+      </c>
+      <c r="W84">
+        <v>411.98179997768221</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>11.668080587119448</v>
+      </c>
+      <c r="Y84">
+        <v>9.4396798978666023</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>439.5</v>
+      </c>
+      <c r="D85">
+        <v>454.9</v>
+      </c>
+      <c r="E85">
+        <v>437.8</v>
+      </c>
+      <c r="F85">
+        <v>450.5</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>447.73333333333335</v>
+      </c>
+      <c r="H85">
+        <v>441.54038391220183</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>440.02293194665162</v>
+      </c>
+      <c r="K85">
+        <v>426.06340705517118</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>79.831971733598124</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>12.699999999999989</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>17.099999999999966</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.74269005847953296</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>427.78066817021681</v>
+      </c>
+      <c r="W85">
+        <v>414.83499997933541</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>12.945668190881406</v>
+      </c>
+      <c r="Y85">
+        <v>10.140877556469563</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>454.7</v>
+      </c>
+      <c r="D86">
+        <v>462.95</v>
+      </c>
+      <c r="E86">
+        <v>448.05</v>
+      </c>
+      <c r="F86">
+        <v>455.5</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>455.5</v>
+      </c>
+      <c r="H86">
+        <v>448.52019195610092</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>445.11783595850682</v>
+      </c>
+      <c r="K86">
+        <v>430.94931659846645</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>82.610801438111054</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>7.4499999999999886</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>14.899999999999977</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>432.04518075941422</v>
+      </c>
+      <c r="W86">
+        <v>417.84722220308834</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>14.197958556325887</v>
+      </c>
+      <c r="Y86">
+        <v>10.952293756440827</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>458.5</v>
+      </c>
+      <c r="D87">
+        <v>458.5</v>
+      </c>
+      <c r="E87">
+        <v>447.1</v>
+      </c>
+      <c r="F87">
+        <v>448</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>451.2</v>
+      </c>
+      <c r="H87">
+        <v>449.86009597805048</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>448.09165018994975</v>
+      </c>
+      <c r="K87">
+        <v>434.5383573543628</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>65.650368577573985</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>0.89999999999997726</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>11.399999999999977</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>7.8947368421050795E-2</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>434.49976833488898</v>
+      </c>
+      <c r="W87">
+        <v>420.08076129915588</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>14.419007035733102</v>
+      </c>
+      <c r="Y87">
+        <v>11.645636412299282</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>440</v>
+      </c>
+      <c r="D88">
+        <v>444.7</v>
+      </c>
+      <c r="E88">
+        <v>427.5</v>
+      </c>
+      <c r="F88">
+        <v>428.9</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>433.7</v>
+      </c>
+      <c r="H88">
+        <v>441.78004798902521</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>447.3379501477387</v>
+      </c>
+      <c r="K88">
+        <v>432.97427794228219</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>39.702558597443364</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>17.199999999999989</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>8.1395348837208031E-2</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V88">
+        <v>433.63826551413683</v>
+      </c>
+      <c r="W88">
+        <v>420.73403823995915</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>12.904227274177686</v>
+      </c>
+      <c r="Y88">
+        <v>11.897354584674963</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>431.9</v>
+      </c>
+      <c r="D89">
+        <v>436.9</v>
+      </c>
+      <c r="E89">
+        <v>428.2</v>
+      </c>
+      <c r="F89">
+        <v>431.3</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>432.13333333333327</v>
+      </c>
+      <c r="H89">
+        <v>436.95669066117921</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>445.01840567046344</v>
+      </c>
+      <c r="K89">
+        <v>431.91332728844168</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N89">
+        <v>43.227022748183238</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>3.1000000000000227</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>8.6999999999999886</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.35632183908046283</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>433.2785323581158</v>
+      </c>
+      <c r="W89">
+        <v>421.51670207403623</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>11.761830284079565</v>
+      </c>
+      <c r="Y89">
+        <v>11.870249724555883</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>431.3</v>
+      </c>
+      <c r="D90">
+        <v>435.6</v>
+      </c>
+      <c r="E90">
+        <v>426</v>
+      </c>
+      <c r="F90">
+        <v>428.05</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>429.88333333333338</v>
+      </c>
+      <c r="H90">
+        <v>433.42001199725632</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>442.92542663258268</v>
+      </c>
+      <c r="K90">
+        <v>430.59925455767689</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>39.335162032284174</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.0500000000000114</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>9.6000000000000227</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.21354166666666735</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>432.47414276455953</v>
+      </c>
+      <c r="W90">
+        <v>422.00065006855209</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>10.47349269600744</v>
+      </c>
+      <c r="Y90">
+        <v>11.590898318846195</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>432.9</v>
+      </c>
+      <c r="D91">
+        <v>434.95</v>
+      </c>
+      <c r="E91">
+        <v>426.4</v>
+      </c>
+      <c r="F91">
+        <v>431</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>430.7833333333333</v>
+      </c>
+      <c r="H91">
+        <v>432.10167266529481</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>441.15310960311984</v>
+      </c>
+      <c r="K91">
+        <v>429.66608687819314</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>44.957873952782592</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>4.6000000000000227</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>8.5500000000000114</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.53801169590643472</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>432.24735157001192</v>
+      </c>
+      <c r="W91">
+        <v>422.66726858199269</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>9.5800829880192282</v>
+      </c>
+      <c r="Y91">
+        <v>11.188735252680802</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>433.5</v>
+      </c>
+      <c r="D92">
+        <v>438.5</v>
+      </c>
+      <c r="E92">
+        <v>425.5</v>
+      </c>
+      <c r="F92">
+        <v>429.6</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>431.2</v>
+      </c>
+      <c r="H92">
+        <v>431.65083633264737</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>440.56352969131541</v>
+      </c>
+      <c r="K92">
+        <v>428.74028979415021</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>42.614803670951105</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>4.1000000000000227</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.31538461538461715</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>431.84006671308703</v>
+      </c>
+      <c r="W92">
+        <v>423.18080424258585</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>8.6592624705011758</v>
+      </c>
+      <c r="Y92">
+        <v>10.682840696244877</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>433</v>
+      </c>
+      <c r="D93">
+        <v>435.95</v>
+      </c>
+      <c r="E93">
+        <v>427.9</v>
+      </c>
+      <c r="F93">
+        <v>428.8</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>430.88333333333327</v>
+      </c>
+      <c r="H93">
+        <v>431.26708483299035</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>439.53830087102307</v>
+      </c>
+      <c r="K93">
+        <v>428.55355872878351</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>41.085342599938457</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.90000000000003411</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>8.0500000000000114</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.11180124223602893</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>431.37236414184287</v>
+      </c>
+      <c r="W93">
+        <v>423.59704096535728</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>7.7753231764855855</v>
+      </c>
+      <c r="Y93">
+        <v>10.10133719229302</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>432.85</v>
+      </c>
+      <c r="D94">
+        <v>436.8</v>
+      </c>
+      <c r="E94">
+        <v>430</v>
+      </c>
+      <c r="F94">
+        <v>435.25</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>434.01666666666665</v>
+      </c>
+      <c r="H94">
+        <v>432.6418757498285</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>438.9297895663513</v>
+      </c>
+      <c r="K94">
+        <v>428.8749901223872</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>56.734723459560385</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>5.25</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>6.8000000000000114</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.77205882352941047</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>431.96892350463628</v>
+      </c>
+      <c r="W94">
+        <v>424.46022311607157</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>7.508700388564705</v>
+      </c>
+      <c r="Y94">
+        <v>9.5828098315473564</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>437.95</v>
+      </c>
+      <c r="D95">
+        <v>441.6</v>
+      </c>
+      <c r="E95">
+        <v>408</v>
+      </c>
+      <c r="F95">
+        <v>414</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>421.2</v>
+      </c>
+      <c r="H95">
+        <v>426.92093787491422</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>439.52316966271769</v>
+      </c>
+      <c r="K95">
+        <v>424.23610342852339</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>27.095063740473002</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>33.600000000000023</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.17857142857142846</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V95">
+        <v>429.20447373469221</v>
+      </c>
+      <c r="W95">
+        <v>423.68539177414033</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>5.5190819605518868</v>
+      </c>
+      <c r="Y95">
+        <v>8.7700642573482632</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>431</v>
+      </c>
+      <c r="D96">
+        <v>434.5</v>
+      </c>
+      <c r="E96">
+        <v>413.4</v>
+      </c>
+      <c r="F96">
+        <v>419.8</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>422.56666666666666</v>
+      </c>
+      <c r="H96">
+        <v>424.74380227079041</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>438.40690973766931</v>
+      </c>
+      <c r="K96">
+        <v>421.82808044440708</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>38.123826437200648</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>6.4000000000000341</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>21.100000000000023</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.303317535545025</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>427.75763162166265</v>
+      </c>
+      <c r="W96">
+        <v>423.39758497605584</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>4.3600466456068148</v>
+      </c>
+      <c r="Y96">
+        <v>7.8880607349999732</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>420</v>
+      </c>
+      <c r="D97">
+        <v>425</v>
+      </c>
+      <c r="E97">
+        <v>413.3</v>
+      </c>
+      <c r="F97">
+        <v>415.5</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>417.93333333333334</v>
+      </c>
+      <c r="H97">
+        <v>421.3385678020619</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>435.4275964626317</v>
+      </c>
+      <c r="K97">
+        <v>419.93295145676109</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>33.436349075944555</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>11.699999999999989</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.18803418803418726</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V97">
+        <v>425.87184214140689</v>
+      </c>
+      <c r="W97">
+        <v>422.81257868153318</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>3.059263459873705</v>
+      </c>
+      <c r="Y97">
+        <v>6.9223012799747199</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>420.85</v>
+      </c>
+      <c r="D98">
+        <v>421</v>
+      </c>
+      <c r="E98">
+        <v>414.8</v>
+      </c>
+      <c r="F98">
+        <v>415.5</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>417.09999999999997</v>
+      </c>
+      <c r="H98">
+        <v>419.21928390103096</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>432.22146391538018</v>
+      </c>
+      <c r="K98">
+        <v>418.79229557748084</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>33.436349075944563</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>0.69999999999998863</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>6.1999999999999886</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.11290322580644999</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V98">
+        <v>424.27617411965196</v>
+      </c>
+      <c r="W98">
+        <v>422.2709061866048</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>2.0052679330471506</v>
+      </c>
+      <c r="Y98">
+        <v>5.9388946105892062</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>416.5</v>
+      </c>
+      <c r="D99">
+        <v>422.65</v>
+      </c>
+      <c r="E99">
+        <v>412.1</v>
+      </c>
+      <c r="F99">
+        <v>417.4</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>417.38333333333338</v>
+      </c>
+      <c r="H99">
+        <v>418.30130861718214</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>430.09447193418458</v>
+      </c>
+      <c r="K99">
+        <v>417.30511878248512</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>38.644696869555986</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>5.2999999999999545</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>10.549999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.50236966824644336</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>423.21830117816705</v>
+      </c>
+      <c r="W99">
+        <v>421.91009832093039</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>1.3082028572366653</v>
+      </c>
+      <c r="Y99">
+        <v>5.0127562599186977</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>418.8</v>
+      </c>
+      <c r="D100">
+        <v>419.45</v>
+      </c>
+      <c r="E100">
+        <v>412</v>
+      </c>
+      <c r="F100">
+        <v>414.2</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>415.2166666666667</v>
+      </c>
+      <c r="H100">
+        <v>416.75898764192442</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>427.729033726588</v>
+      </c>
+      <c r="K100">
+        <v>416.1262034974884</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>33.179140643108198</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>7.4499999999999886</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.2953020134228177</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>421.83087022767984</v>
+      </c>
+      <c r="W100">
+        <v>421.33897992678737</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>0.49189030089246444</v>
+      </c>
+      <c r="Y100">
+        <v>4.1085830681134512</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>413.95</v>
+      </c>
+      <c r="D101">
+        <v>419.9</v>
+      </c>
+      <c r="E101">
+        <v>411.35</v>
+      </c>
+      <c r="F101">
+        <v>413.25</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>414.83333333333331</v>
+      </c>
+      <c r="H101">
+        <v>415.79616048762887</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>425.98924845401291</v>
+      </c>
+      <c r="K101">
+        <v>415.06482494249099</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>31.524599108738155</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>1.8999999999999773</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>8.5499999999999545</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.22222222222222074</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>420.51073634649833</v>
+      </c>
+      <c r="W101">
+        <v>420.7397962285068</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-0.22905988200847105</v>
+      </c>
+      <c r="Y101">
+        <v>3.2410544780890667</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>413.8</v>
+      </c>
+      <c r="D102">
+        <v>414</v>
+      </c>
+      <c r="E102">
+        <v>399.25</v>
+      </c>
+      <c r="F102">
+        <v>409.4</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>407.55</v>
+      </c>
+      <c r="H102">
+        <v>411.67308024381441</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>423.32497101978782</v>
+      </c>
+      <c r="K102">
+        <v>411.55041939971522</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>25.167023517383086</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>10.149999999999977</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>14.75</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.68813559322033746</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>418.80139229319087</v>
+      </c>
+      <c r="W102">
+        <v>419.89981132269151</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-1.0984190295006329</v>
+      </c>
+      <c r="Y102">
+        <v>2.3731597765711268</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>407.9</v>
+      </c>
+      <c r="D103">
+        <v>407.9</v>
+      </c>
+      <c r="E103">
+        <v>397</v>
+      </c>
+      <c r="F103">
+        <v>399.5</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>401.4666666666667</v>
+      </c>
+      <c r="H103">
+        <v>406.56987345524055</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>419.89719968205719</v>
+      </c>
+      <c r="K103">
+        <v>408.31699286644516</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>15.269158296229001</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>10.899999999999977</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.2293577981651381</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>415.83194732500766</v>
+      </c>
+      <c r="W103">
+        <v>418.38871418767729</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-2.5567668626696332</v>
+      </c>
+      <c r="Y103">
+        <v>1.3871744487229747</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>401</v>
+      </c>
+      <c r="D104">
+        <v>403.7</v>
+      </c>
+      <c r="E104">
+        <v>385</v>
+      </c>
+      <c r="F104">
+        <v>399</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>395.90000000000003</v>
+      </c>
+      <c r="H104">
+        <v>401.23493672762027</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>416.29782197493336</v>
+      </c>
+      <c r="K104">
+        <v>403.13543889612401</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>14.899229355258711</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>18.699999999999989</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.74866310160427851</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>413.24241696731417</v>
+      </c>
+      <c r="W104">
+        <v>416.95251313673822</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-3.7100961694240482</v>
+      </c>
+      <c r="Y104">
+        <v>0.36772032509356989</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>401.55</v>
+      </c>
+      <c r="D105">
+        <v>408</v>
+      </c>
+      <c r="E105">
+        <v>392.1</v>
+      </c>
+      <c r="F105">
+        <v>393.75</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>397.95</v>
+      </c>
+      <c r="H105">
+        <v>399.5924683638101</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>414.45386153605926</v>
+      </c>
+      <c r="K105">
+        <v>400.68311914142981</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>11.304577347198574</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>1.6499999999999773</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>15.899999999999977</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.10377358490565909</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>410.24358358772736</v>
+      </c>
+      <c r="W105">
+        <v>415.23380845994279</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-4.9902248722154354</v>
+      </c>
+      <c r="Y105">
+        <v>-0.70386871436823117</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>406.20000000000005</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>401.95000000000005</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>400.05</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>398.15000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>392.95</v>
+      </c>
+      <c r="D106">
+        <v>400.7</v>
+      </c>
+      <c r="E106">
+        <v>374.5</v>
+      </c>
+      <c r="F106">
+        <v>396</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>390.40000000000003</v>
+      </c>
+      <c r="H106">
+        <v>394.99623418190504</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>411.39744786137942</v>
+      </c>
+      <c r="K106">
+        <v>394.86464822111208</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>21.456256267165525</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>21.5</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>26.199999999999989</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.82061068702290108</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>408.05226303576933</v>
+      </c>
+      <c r="W106">
+        <v>413.80908190735443</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-5.7568188715850965</v>
+      </c>
+      <c r="Y106">
+        <v>-1.7144587458116043</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>398</v>
+      </c>
+      <c r="D107">
+        <v>405.5</v>
+      </c>
+      <c r="E107">
+        <v>393.65</v>
+      </c>
+      <c r="F107">
+        <v>399.65</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>399.59999999999997</v>
+      </c>
+      <c r="H107">
+        <v>397.29811709095247</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>410.08690389218401</v>
+      </c>
+      <c r="K107">
+        <v>394.59472639419829</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>36.251634694859796</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>11.850000000000023</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.50632911392404967</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>406.7596071841125</v>
+      </c>
+      <c r="W107">
+        <v>412.76026102532819</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-6.0006538412156942</v>
+      </c>
+      <c r="Y107">
+        <v>-2.5716977648924226</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
